--- a/data/youtube_channel.xlsx
+++ b/data/youtube_channel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="576" yWindow="120" windowWidth="22008" windowHeight="9216" activeTab="1"/>
+    <workbookView xWindow="576" yWindow="120" windowWidth="22008" windowHeight="9216"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -510,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -696,16 +696,25 @@
       </c>
     </row>
     <row r="23" spans="1:2">
+      <c r="A23">
+        <v>2</v>
+      </c>
       <c r="B23" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:2">
+      <c r="A24">
+        <v>2</v>
+      </c>
       <c r="B24" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:2">
+      <c r="A25">
+        <v>2</v>
+      </c>
       <c r="B25" t="s">
         <v>23</v>
       </c>
@@ -720,7 +729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
